--- a/jbir_test.xlsx
+++ b/jbir_test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="213">
   <si>
     <t>Room</t>
   </si>
@@ -70,34 +70,43 @@
     <t>Programming Hours</t>
   </si>
   <si>
-    <t>Colab 104</t>
-  </si>
-  <si>
-    <t>Conference 112</t>
+    <t>Assistive Listening System</t>
+  </si>
+  <si>
+    <t>Camera &amp; Video Streaming System</t>
+  </si>
+  <si>
+    <t>Controls</t>
+  </si>
+  <si>
+    <t>Fixtures</t>
   </si>
   <si>
     <t>General Project Costs</t>
   </si>
   <si>
-    <t>IDF</t>
-  </si>
-  <si>
-    <t>Meeting 108</t>
-  </si>
-  <si>
-    <t>Office 110</t>
-  </si>
-  <si>
-    <t>Open Office</t>
-  </si>
-  <si>
-    <t>Wire</t>
-  </si>
-  <si>
-    <t>Zoom 109</t>
-  </si>
-  <si>
-    <t>Zoom 111</t>
+    <t>Lighting Positions</t>
+  </si>
+  <si>
+    <t>Loose Inventory</t>
+  </si>
+  <si>
+    <t>Plates, Panels &amp; Equipment Racks</t>
+  </si>
+  <si>
+    <t>Projector &amp; Projection Screen</t>
+  </si>
+  <si>
+    <t>Sources, Switching, Processing &amp; Routing</t>
+  </si>
+  <si>
+    <t>Speaker System</t>
+  </si>
+  <si>
+    <t>Wire &amp; Cable</t>
+  </si>
+  <si>
+    <t>Wireless Microphone Systems</t>
   </si>
   <si>
     <t>Audio</t>
@@ -106,100 +115,169 @@
     <t>Video</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Equipment Rack</t>
-  </si>
-  <si>
-    <t>Sound Masking</t>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>Listen Technologies</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>TRENDnet</t>
+  </si>
+  <si>
+    <t>EAVI</t>
+  </si>
+  <si>
+    <t>Netgear</t>
+  </si>
+  <si>
+    <t>Strand Lighting</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Pathway Connectivity</t>
+  </si>
+  <si>
+    <t>COVID</t>
+  </si>
+  <si>
+    <t>West Penn Wire</t>
+  </si>
+  <si>
+    <t>Rosco</t>
+  </si>
+  <si>
+    <t>Altman Lighting</t>
+  </si>
+  <si>
+    <t>Whirlwind</t>
+  </si>
+  <si>
+    <t>L-Acoustics</t>
+  </si>
+  <si>
+    <t>Da-Lite</t>
+  </si>
+  <si>
+    <t>Chief</t>
+  </si>
+  <si>
+    <t>Allen &amp; Heath</t>
+  </si>
+  <si>
+    <t>Extron Electronics</t>
+  </si>
+  <si>
+    <t>Denon Professional</t>
   </si>
   <si>
     <t>Shure</t>
   </si>
   <si>
-    <t>QSC</t>
-  </si>
-  <si>
-    <t>Innovox</t>
-  </si>
-  <si>
-    <t>EAVI</t>
-  </si>
-  <si>
-    <t>Crestron</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Chief</t>
-  </si>
-  <si>
-    <t>Newline Interactive</t>
-  </si>
-  <si>
-    <t>Vaddio</t>
-  </si>
-  <si>
-    <t>Middle Atlantic</t>
-  </si>
-  <si>
-    <t>Cambridge Sound Management</t>
-  </si>
-  <si>
-    <t>Kramer Electronics</t>
-  </si>
-  <si>
-    <t>West Penn Wire</t>
-  </si>
-  <si>
-    <t>Belden</t>
-  </si>
-  <si>
-    <t>MXA910W-US</t>
-  </si>
-  <si>
-    <t>I/O USB Bridge</t>
-  </si>
-  <si>
-    <t>FPV2 8698P</t>
-  </si>
-  <si>
-    <t>Labor</t>
-  </si>
-  <si>
-    <t>HD-TX-101-C-E</t>
-  </si>
-  <si>
-    <t>HD-RX-101-C-E</t>
-  </si>
-  <si>
-    <t>Mac Mini</t>
-  </si>
-  <si>
-    <t>NC-12x80</t>
-  </si>
-  <si>
-    <t>PAC527F</t>
-  </si>
-  <si>
-    <t>XSM1U</t>
-  </si>
-  <si>
-    <t>UC-C100-Z-WM</t>
-  </si>
-  <si>
-    <t>TT-8619RS</t>
+    <t>LS-31-072</t>
+  </si>
+  <si>
+    <t>AV‐HLC100P</t>
+  </si>
+  <si>
+    <t>FEC-40WMK</t>
+  </si>
+  <si>
+    <t>AW-HE42KPJ</t>
+  </si>
+  <si>
+    <t>TPE-117GI</t>
   </si>
   <si>
     <t>OFE</t>
   </si>
   <si>
-    <t>535-2000-243</t>
-  </si>
-  <si>
-    <t>Programming</t>
+    <t>WAX214-100NAS</t>
+  </si>
+  <si>
+    <t>76702</t>
+  </si>
+  <si>
+    <t>72397</t>
+  </si>
+  <si>
+    <t>72399</t>
+  </si>
+  <si>
+    <t>76588</t>
+  </si>
+  <si>
+    <t>63309</t>
+  </si>
+  <si>
+    <t>63324</t>
+  </si>
+  <si>
+    <t>63035USB</t>
+  </si>
+  <si>
+    <t>63054-2</t>
+  </si>
+  <si>
+    <t>54109-020</t>
+  </si>
+  <si>
+    <t>54109-001</t>
+  </si>
+  <si>
+    <t>Strand Quote</t>
+  </si>
+  <si>
+    <t>P2418HT</t>
+  </si>
+  <si>
+    <t>PWSA</t>
+  </si>
+  <si>
+    <t>Custom 1-Gang</t>
+  </si>
+  <si>
+    <t>Custom 2-Gang</t>
+  </si>
+  <si>
+    <t>Custom 10"x10"</t>
+  </si>
+  <si>
+    <t>254245EZWH1000</t>
+  </si>
+  <si>
+    <t>PWREP WM P8 TERM RDM MED</t>
+  </si>
+  <si>
+    <t>Item 01</t>
+  </si>
+  <si>
+    <t>Item 02</t>
+  </si>
+  <si>
+    <t>Item 03</t>
+  </si>
+  <si>
+    <t>CDR70-*-**-***-****-*****</t>
+  </si>
+  <si>
+    <t>224WH0500</t>
+  </si>
+  <si>
+    <t>PHX1-RGBW-30Z-***</t>
+  </si>
+  <si>
+    <t>AP-150 RGBW-B-PCED</t>
+  </si>
+  <si>
+    <t>PEG6-*-**</t>
+  </si>
+  <si>
+    <t>System Design Services</t>
   </si>
   <si>
     <t>Project Management</t>
@@ -208,130 +286,235 @@
     <t>Project Planning</t>
   </si>
   <si>
+    <t>Installation Testing</t>
+  </si>
+  <si>
+    <t>System Commissioning</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>First Use</t>
+  </si>
+  <si>
     <t>Travel</t>
   </si>
   <si>
-    <t>Installation Testing</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>First Use</t>
-  </si>
-  <si>
-    <t>System Commissioning</t>
-  </si>
-  <si>
-    <t>RMC4</t>
-  </si>
-  <si>
-    <t>NS26-1440++</t>
-  </si>
-  <si>
-    <t>CEN-CI3-3</t>
-  </si>
-  <si>
-    <t>C3COM-3</t>
-  </si>
-  <si>
-    <t>UD2</t>
-  </si>
-  <si>
-    <t>BR1</t>
-  </si>
-  <si>
-    <t>PD-915R-SP</t>
-  </si>
-  <si>
-    <t>UPS-1000R</t>
-  </si>
-  <si>
-    <t>Qt X 300</t>
-  </si>
-  <si>
-    <t>Qt X RMT-KT</t>
-  </si>
-  <si>
-    <t>CORE 110f</t>
-  </si>
-  <si>
-    <t>MXA710W-4FT</t>
-  </si>
-  <si>
-    <t>NC-110</t>
-  </si>
-  <si>
-    <t>CP-HM/DM-35</t>
-  </si>
-  <si>
-    <t>PAC526</t>
-  </si>
-  <si>
-    <t>E-A-W-16-4</t>
-  </si>
-  <si>
-    <t>DRB-1</t>
-  </si>
-  <si>
-    <t>25291BGY1000</t>
-  </si>
-  <si>
-    <t>1585A</t>
-  </si>
-  <si>
-    <t>2413F</t>
-  </si>
-  <si>
-    <t>Ceiling Array Microphone</t>
-  </si>
-  <si>
-    <t>Q-SYS PoE bridging endpoint for AV-to-USB Bridging. Delivers</t>
-  </si>
-  <si>
-    <t>2 channel vertical video display loudspeaker powered (Priced and sold as pairs)</t>
-  </si>
-  <si>
-    <t>Installation and removal of temporary video conferencing solution</t>
-  </si>
-  <si>
-    <t>DM Lite HDMI over CATx Transmitter Surface Mount</t>
-  </si>
-  <si>
-    <t>DM Lite HDMI over CATx Receiver Surface Mount</t>
-  </si>
-  <si>
-    <t>Apple Mac Mini</t>
-  </si>
-  <si>
-    <t>12x Optical Zoom 80° Horizontal Field of View, PTZ Network Camera, PoE, with HDMI and SDI output. Includes PTZ-WMB1 wall mount bracket</t>
-  </si>
-  <si>
-    <t>Lg Inwall Box 14.25X 22 w Flange</t>
-  </si>
-  <si>
-    <t>Micro-Adjust Fixed Wall Mount X-Large</t>
-  </si>
-  <si>
-    <t>Crestron Flex Video Conference System Integrator Kit with a Wall Mounted Control Interface and ASUS Mini PC for Zoom Rooms Software</t>
-  </si>
-  <si>
-    <t>860RS+ 4K LED Multi-touch Display</t>
-  </si>
-  <si>
-    <t>Install owner furnished soundbar</t>
-  </si>
-  <si>
-    <t>Install owner furnished 90" display</t>
-  </si>
-  <si>
-    <t>Install owner furnished display mount</t>
-  </si>
-  <si>
-    <t>THIN PROFILE WALL MOUNT SONY PANA CAMS</t>
-  </si>
-  <si>
-    <t>Programming of Control Devices</t>
+    <t>Installation Field</t>
+  </si>
+  <si>
+    <t>Demolition</t>
+  </si>
+  <si>
+    <t>MK425NP</t>
+  </si>
+  <si>
+    <t>MK450NP</t>
+  </si>
+  <si>
+    <t>MK4100NP</t>
+  </si>
+  <si>
+    <t>108P 115V</t>
+  </si>
+  <si>
+    <t>99291L</t>
+  </si>
+  <si>
+    <t>CMA110</t>
+  </si>
+  <si>
+    <t>VCMUW</t>
+  </si>
+  <si>
+    <t>ET-EMT800</t>
+  </si>
+  <si>
+    <t>PT-MZ10KLBU</t>
+  </si>
+  <si>
+    <t>AH-SQ-5</t>
+  </si>
+  <si>
+    <t>AH-DX168</t>
+  </si>
+  <si>
+    <t>AH-AP11332</t>
+  </si>
+  <si>
+    <t>60-1238-81</t>
+  </si>
+  <si>
+    <t>60-1421-12</t>
+  </si>
+  <si>
+    <t>DN-500BDMKII</t>
+  </si>
+  <si>
+    <t>5XT</t>
+  </si>
+  <si>
+    <t>ETR5</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X-US8</t>
+  </si>
+  <si>
+    <t>A10i WIDE</t>
+  </si>
+  <si>
+    <t>A10i FOCUS</t>
+  </si>
+  <si>
+    <t>A15i-BUMP</t>
+  </si>
+  <si>
+    <t>KS21i</t>
+  </si>
+  <si>
+    <t>A10i-TILT</t>
+  </si>
+  <si>
+    <t>KS21i-SLINK</t>
+  </si>
+  <si>
+    <t>A10i FOCUS-ENDLINK</t>
+  </si>
+  <si>
+    <t>A10i FOCUS-LINK</t>
+  </si>
+  <si>
+    <t>A10i WIDE-LINK</t>
+  </si>
+  <si>
+    <t>LA4X US</t>
+  </si>
+  <si>
+    <t>25227BBK1000</t>
+  </si>
+  <si>
+    <t>25226BBK1000</t>
+  </si>
+  <si>
+    <t>SLXD24/SM58-J52</t>
+  </si>
+  <si>
+    <t>SLXD14-J52</t>
+  </si>
+  <si>
+    <t>WL183</t>
+  </si>
+  <si>
+    <t>UA844+SWB</t>
+  </si>
+  <si>
+    <t>Listen IDSP Essentials Level 2 Stationary RF System (72 MHz)</t>
+  </si>
+  <si>
+    <t>HD Live Switcher with up to 8 Inputs with NDI (Network Digital Interface), 2 SDI outputs with Aux, HDMI output for Multiviewer and UI, audio mixing, streaming, recording, and character generation.</t>
+  </si>
+  <si>
+    <t>Heavy duty wall mount (black) for use with AW-HE/HN38/40 and AW-UE/UN70 cameras PTZ cameras</t>
+  </si>
+  <si>
+    <t>AW-HE42, 3G SDI, Optical Image Stabilizer, HDMI, Genlock</t>
+  </si>
+  <si>
+    <t>Gigabit Ultra PoE+ Injector</t>
+  </si>
+  <si>
+    <t>Install owner furnished monitors</t>
+  </si>
+  <si>
+    <t>Install owner furnished network switch</t>
+  </si>
+  <si>
+    <t>WiFi6 AX1800 PoE Access Point</t>
+  </si>
+  <si>
+    <t>Strand Lighting C21/EC21 Advanced Control Electronics retro-fit processor assembly with single electronics, complete with processor, for use with CD80SV dimmer racks</t>
+  </si>
+  <si>
+    <t>CD80SV Dual 20A 120V 2.4Kw. Constant Module (C21 style module/housing)</t>
+  </si>
+  <si>
+    <t>CD80SV Dual 20A 120V 2.4Kw. Non-Dim Module (C21 style module/housing)</t>
+  </si>
+  <si>
+    <t>C21 Module Filler Blank</t>
+  </si>
+  <si>
+    <t>Vision.net 9 Channel Master Station - White Faceplate, 4-Gang Wall Mount</t>
+  </si>
+  <si>
+    <t>Vision.net 4 Pushbutton Station -White Faceplate, 1-Gang Wall Mount</t>
+  </si>
+  <si>
+    <t>Vision.net RS232 receptacle station, with USB connector</t>
+  </si>
+  <si>
+    <t>Vision.net DMX512 Interface &amp; Vision.net Power Supply Mounted In Back Box</t>
+  </si>
+  <si>
+    <t>Strand FLX S48 (US), 2-Universe</t>
+  </si>
+  <si>
+    <t>Strand FLX S48 Dustcover</t>
+  </si>
+  <si>
+    <t>System Quote #2104045-R2</t>
+  </si>
+  <si>
+    <t>23.8" Touch Monitor</t>
+  </si>
+  <si>
+    <t>Custom eDIN assembly</t>
+  </si>
+  <si>
+    <t>Custom 1-Gang Plate</t>
+  </si>
+  <si>
+    <t>Custom 2-Gang Plate</t>
+  </si>
+  <si>
+    <t>Custom 10"x10" Wall Plate</t>
+  </si>
+  <si>
+    <t>4P 24G SLD CAT 5E PLEN</t>
+  </si>
+  <si>
+    <t>DMX Repeater, Wall-mount, 8-Ports, Compression Fit Terminal, E1.20 RDM Compliant, Medium 10" x 23" x 4.5"</t>
+  </si>
+  <si>
+    <t>RoscoLED Tape 3000K/90+CRI - 5m Reel</t>
+  </si>
+  <si>
+    <t>RoscoLED Static White Control Box 300W</t>
+  </si>
+  <si>
+    <t>RoscoLED Tape Slim Rectangular Profile, 1m</t>
+  </si>
+  <si>
+    <t>Chalice 70 Watt 6" Recessed Ceiling Mount Downlight</t>
+  </si>
+  <si>
+    <t>1P 18G STRD USHLD PVC JKT</t>
+  </si>
+  <si>
+    <t>150 Watt PHX LED Zoom Spot - RGBW LED Array - 30-55 Zoom</t>
+  </si>
+  <si>
+    <t>AP-150 135 Watt RGBW LED Par, Black. With motorized zoom, and universal 100- 240 VAC power supply,I NCLUDES POWERCON to EDISON Cable (PN-PCL-PBG- 12-5) C-Clamp and Safety cable must be ordered separately</t>
+  </si>
+  <si>
+    <t>6" LED Fresnel - 130W, 3K-B</t>
+  </si>
+  <si>
+    <t>Engineering Services</t>
   </si>
   <si>
     <t>EAVI Project Management</t>
@@ -340,85 +523,136 @@
     <t>Planning of the Project by the Lead Technician</t>
   </si>
   <si>
+    <t>Finish (Testing)</t>
+  </si>
+  <si>
+    <t>System Testing, Adjustment, Verification</t>
+  </si>
+  <si>
+    <t>On-Site Training on System Operation and Maintenan</t>
+  </si>
+  <si>
+    <t>Technical Support for First Use</t>
+  </si>
+  <si>
     <t>Travel time to project from EAVI office</t>
   </si>
   <si>
-    <t>Finish (Testing)</t>
-  </si>
-  <si>
-    <t>On-Site Training on System Operation and Maintenance</t>
-  </si>
-  <si>
-    <t>Technical Support for First Use</t>
-  </si>
-  <si>
-    <t>System Testing Adjustment Verification</t>
-  </si>
-  <si>
-    <t>4-Series Control System</t>
-  </si>
-  <si>
-    <t>26-port network switch preconfigured for Q-SYS Audio, Video and Control with 24x PoE++ ports and 1440 Watts PoE budget. Features advanced QoS and IGMP configuration to also support AES67 and Dante within the same VLAN.</t>
-  </si>
-  <si>
-    <t>3-Series Card Interface 3 Slot</t>
-  </si>
-  <si>
-    <t>3-Series Control Card 3 COM Ports</t>
-  </si>
-  <si>
-    <t>2SP UTIL.DRAWER BLK</t>
-  </si>
-  <si>
-    <t>1SP PANEL W BRUSH GROMMET</t>
-  </si>
-  <si>
-    <t>9 OUTS,15A SERIES SURGE</t>
-  </si>
-  <si>
-    <t>1000VA/750W UPS</t>
-  </si>
-  <si>
-    <t>Qt X Controller, 3 Qt Outputs</t>
-  </si>
-  <si>
-    <t>Qt X Controller Rack Mount Kit</t>
-  </si>
-  <si>
-    <t>Unified Core with 24 local audio I O channels 128x128 netwo</t>
-  </si>
-  <si>
-    <t>LINEAR ARRAY MIC, WHITE, 4 FT</t>
-  </si>
-  <si>
-    <t>110° Horizontal Field of View, ePTZ network camera, PoE, includes mounting bracket for monitor and surface mounting</t>
-  </si>
-  <si>
-    <t>Install owner furnished 65" display</t>
-  </si>
-  <si>
-    <t>Install owner furnished 80" display</t>
-  </si>
-  <si>
-    <t>PLENUM HDMI to DVI Male - Male Cable 35</t>
-  </si>
-  <si>
-    <t>WALL ENC16X16MTI-DPRE INST</t>
-  </si>
-  <si>
-    <t>Standard Emitters, White, 4 pack, with 4 x 16 ft white plenum rated cables</t>
-  </si>
-  <si>
-    <t>Drywall rough-in bracket</t>
-  </si>
-  <si>
-    <t>1P 22G STRD SHLD PLEN II</t>
-  </si>
-  <si>
-    <t>Belden Cat5 UTP non-shielded data cable plenum CMP-00424BEL</t>
-  </si>
-  <si>
-    <t>23-4P F UTP-CMP SOL BC FEP LSPVC BLK Plenum</t>
+    <t>Relocate Tormentor Pipes &amp; Install DMX Boxes</t>
+  </si>
+  <si>
+    <t>Removal of Balcony Trees</t>
+  </si>
+  <si>
+    <t>Install New Wall Mount Pipes &amp; DMX Boxes</t>
+  </si>
+  <si>
+    <t>Cable - Microphone MK4 XLRF to XLRM 25 Accusonic 2 no</t>
+  </si>
+  <si>
+    <t>Cable - Microphone MK4 XLRF to XLRM 50 Accusonic 2 no</t>
+  </si>
+  <si>
+    <t>Cable - Microphone MK4 XLRF to XLRM 100 Accusonic 2 no</t>
+  </si>
+  <si>
+    <t>Self-powered coaxial loudspeaker 8 LF 1.5 HF diaphrag</t>
+  </si>
+  <si>
+    <t>Install owner furnished equipment racks</t>
+  </si>
+  <si>
+    <t>COSMO TNSD 220D HDC1.1 HDTV</t>
+  </si>
+  <si>
+    <t>CMA-110 FLAT CEILING PLATE</t>
+  </si>
+  <si>
+    <t>HEAVY DUTY PROJECTOR MOUNT</t>
+  </si>
+  <si>
+    <t>4.14 – 7.40:1 Zoom lens for PT-MZ16K/MZ13K/MZ10K LCD laser projectors</t>
+  </si>
+  <si>
+    <t>10,000 Lumens, LCD, WUXGA Resolution (1,920 x 1,200), Laser, 4K Signal Input, Information Monitor, No Lens, Black</t>
+  </si>
+  <si>
+    <t>96kHz XCVI FPGA processing 48 Input Channels DEEP Processi</t>
+  </si>
+  <si>
+    <t>16 x 8 Stage Box with dLive 96kHz mic preamps 96kHz</t>
+  </si>
+  <si>
+    <t>Dust cover for SQ-5</t>
+  </si>
+  <si>
+    <t>IN1608 xi Standard Model</t>
+  </si>
+  <si>
+    <t>DTP T HWP 4K 231 D - DTP Transmitter for HDMI - Decorator-Style Wallplate, Black - 230 feet (70 m)</t>
+  </si>
+  <si>
+    <t>Blu-Ray, DVD &amp; CD/SD/USB Player</t>
+  </si>
+  <si>
+    <t>2-way passive coaxial enclosure 5 LF 1 HF diaphragm</t>
+  </si>
+  <si>
+    <t>Adjustable U-bracket 5XT</t>
+  </si>
+  <si>
+    <t>2-way passive coaxial enclosure 8 LF 1.5 HF diaphragm</t>
+  </si>
+  <si>
+    <t>Short U-bracket for X8</t>
+  </si>
+  <si>
+    <t>2-way passive constant curvature WST® 30° enclosure: 10" LF+ 2.5" HF diaphragm (installation version)</t>
+  </si>
+  <si>
+    <t>2-way passive constant curvature WST® 10° enclosure: 10" LF+ 2.5" HF diaphragm (installation version)</t>
+  </si>
+  <si>
+    <t>Flying frame for vertical deployment of A15i and KS21i</t>
+  </si>
+  <si>
+    <t>High power compact subwoofer: 1 x 21" (installation version)</t>
+  </si>
+  <si>
+    <t>Rigging elements with angles for A10i onto or under KS21i</t>
+  </si>
+  <si>
+    <t>Rear rigging plates for A15i and A10i onto or under KS21i</t>
+  </si>
+  <si>
+    <t>End rigging plates for A10i Focus</t>
+  </si>
+  <si>
+    <t>Rigging plates for A10i Focus</t>
+  </si>
+  <si>
+    <t>Rigging plates for A10i Wide</t>
+  </si>
+  <si>
+    <t>Amplified controller with PFC 4 x 1000 W 8 Ohms. Ethernet n</t>
+  </si>
+  <si>
+    <t>1P 12G STRD UNSHLD PLENII</t>
+  </si>
+  <si>
+    <t>1P 14G STRD UNSHLD PLENII</t>
+  </si>
+  <si>
+    <t>Wireless Vocal System with SM58</t>
+  </si>
+  <si>
+    <t>Combo System with SLXD1 Bodypack and SLXD4 Receiver</t>
+  </si>
+  <si>
+    <t>Microflex Omnidirectional Lavalier Microphone</t>
+  </si>
+  <si>
+    <t>Five-way active antenna splitter and power distribution syst</t>
   </si>
   <si>
     <t>Total</t>
@@ -783,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -861,19 +1095,19 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -882,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -908,22 +1142,22 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -932,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -958,22 +1192,22 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -982,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1008,22 +1242,22 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -1032,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1058,22 +1292,22 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -1082,13 +1316,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1108,22 +1342,22 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -1132,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1158,37 +1392,37 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1208,22 +1442,22 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1232,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1258,10 +1492,10 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1270,10 +1504,10 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1282,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1308,10 +1542,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1320,10 +1554,10 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1332,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1358,22 +1592,22 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -1382,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1408,22 +1642,22 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1432,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1458,22 +1692,22 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -1488,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1508,22 +1742,22 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1532,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1558,37 +1792,37 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1608,22 +1842,22 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -1632,13 +1866,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>16</v>
+        <v>1.8</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1658,22 +1892,22 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -1682,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1708,22 +1942,22 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1732,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1758,37 +1992,37 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1808,22 +2042,22 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1832,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1858,22 +2092,22 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1882,13 +2116,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1908,22 +2142,22 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1932,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1958,37 +2192,37 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2008,31 +2242,31 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2058,22 +2292,22 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -2082,13 +2316,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2111,25 +2345,25 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2153,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2161,19 +2395,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -2182,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2200,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2208,22 +2442,22 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -2232,13 +2466,13 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2250,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2258,22 +2492,22 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -2282,16 +2516,16 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2308,22 +2542,22 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -2332,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K31">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -2358,22 +2592,22 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -2385,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -2408,34 +2642,34 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>4</v>
       </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2458,22 +2692,22 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -2482,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2511,34 +2745,34 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.6</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0.7</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>1.2</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -2561,19 +2795,19 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -2582,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>7.2</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2608,22 +2842,22 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -2632,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2658,22 +2892,22 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -2682,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -2700,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -2708,22 +2942,22 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -2738,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2758,22 +2992,22 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -2785,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L40">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -2808,22 +3042,22 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -2832,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -2858,22 +3092,22 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -2882,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -2908,22 +3142,22 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -2932,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -2958,22 +3192,22 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -2988,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3008,22 +3242,22 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45">
         <v>20</v>
       </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G45" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -3032,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>3.2</v>
+        <v>20</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3058,22 +3292,22 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
@@ -3082,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3108,22 +3342,22 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
@@ -3132,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3158,37 +3392,37 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G48" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3208,22 +3442,22 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -3232,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>16</v>
+        <v>0.4</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3258,22 +3492,22 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -3282,13 +3516,13 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -3308,22 +3542,22 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="G51" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -3338,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -3358,37 +3592,37 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -3408,22 +3642,22 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G53" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -3432,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -3458,22 +3692,22 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="G54" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
@@ -3482,13 +3716,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3508,22 +3742,22 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="G55" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
@@ -3532,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3558,31 +3792,31 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="G56" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3608,37 +3842,37 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="G57" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
         <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -3658,22 +3892,22 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="G58" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -3682,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="J58">
+        <v>3.2</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
         <v>1</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -3708,22 +3942,22 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="G59" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -3732,13 +3966,13 @@
         <v>0</v>
       </c>
       <c r="J59">
+        <v>2.2</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
         <v>1</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -3758,22 +3992,22 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -3782,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3808,22 +4042,22 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="G61" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -3832,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3858,22 +4092,22 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G62" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -3882,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3908,22 +4142,22 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="G63" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
@@ -3958,22 +4192,22 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="G64" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
@@ -3982,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -4008,22 +4242,22 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
@@ -4032,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -4058,31 +4292,31 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4108,31 +4342,31 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G67" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -4158,28 +4392,28 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -4208,22 +4442,22 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G69" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -4258,98 +4492,748 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="G70" t="s">
+        <v>198</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G71" t="s">
+        <v>199</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" t="s">
+        <v>119</v>
+      </c>
+      <c r="G72" t="s">
+        <v>200</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" t="s">
+        <v>201</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.8</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" t="s">
+        <v>121</v>
+      </c>
+      <c r="G74" t="s">
+        <v>202</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" t="s">
+        <v>122</v>
+      </c>
+      <c r="G75" t="s">
+        <v>203</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" t="s">
+        <v>204</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" t="s">
+        <v>124</v>
+      </c>
+      <c r="G77" t="s">
+        <v>205</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1.7</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>4.7</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s">
+        <v>125</v>
+      </c>
+      <c r="G78" t="s">
+        <v>206</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>16</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" t="s">
+        <v>207</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" t="s">
+        <v>127</v>
+      </c>
+      <c r="G80" t="s">
+        <v>208</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>2.5</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81" t="s">
         <v>128</v>
       </c>
-      <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="H71" t="s">
-        <v>134</v>
-      </c>
-      <c r="I71">
-        <f>SUBTOTAL(9,I2:I70)</f>
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <f>SUBTOTAL(9,J2:J70)</f>
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <f>SUBTOTAL(9,K2:K70)</f>
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <f>SUBTOTAL(9,L2:L70)</f>
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <f>SUBTOTAL(9,M2:M70)</f>
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <f>SUBTOTAL(9,N2:N70)</f>
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <f>SUBTOTAL(9,O2:O70)</f>
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <f>SUBTOTAL(9,P2:P70)</f>
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <f>SUBTOTAL(9,Q2:Q70)</f>
+      <c r="G81" t="s">
+        <v>209</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" t="s">
+        <v>129</v>
+      </c>
+      <c r="G82" t="s">
+        <v>210</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.4</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0.2</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" t="s">
+        <v>130</v>
+      </c>
+      <c r="G83" t="s">
+        <v>211</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1.9</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="H84" t="s">
+        <v>212</v>
+      </c>
+      <c r="I84">
+        <f>SUBTOTAL(9,I2:I83)</f>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <f>SUBTOTAL(9,J2:J83)</f>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f>SUBTOTAL(9,K2:K83)</f>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f>SUBTOTAL(9,L2:L83)</f>
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <f>SUBTOTAL(9,M2:M83)</f>
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <f>SUBTOTAL(9,N2:N83)</f>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f>SUBTOTAL(9,O2:O83)</f>
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <f>SUBTOTAL(9,P2:P83)</f>
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <f>SUBTOTAL(9,Q2:Q83)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q1"/>
-  <conditionalFormatting sqref="A1:Q70">
+  <conditionalFormatting sqref="A1:Q83">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
@@ -4357,9 +5241,9 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71:Q71">
+  <conditionalFormatting sqref="H84:Q84">
     <cfRule type="notContainsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(H71))&gt;0</formula>
+      <formula>LEN(TRIM(H84))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
